--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H2">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.904879151809215</v>
+        <v>1.002281666666667</v>
       </c>
       <c r="N2">
-        <v>0.904879151809215</v>
+        <v>3.006845</v>
       </c>
       <c r="O2">
-        <v>0.2302534430896978</v>
+        <v>0.1474891317421017</v>
       </c>
       <c r="P2">
-        <v>0.2302534430896978</v>
+        <v>0.1474891317421018</v>
       </c>
       <c r="Q2">
-        <v>128.2090908145274</v>
+        <v>150.3777615076378</v>
       </c>
       <c r="R2">
-        <v>128.2090908145274</v>
+        <v>1353.39985356874</v>
       </c>
       <c r="S2">
-        <v>0.09717804363964884</v>
+        <v>0.06124497058100543</v>
       </c>
       <c r="T2">
-        <v>0.09717804363964884</v>
+        <v>0.06124497058100543</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H3">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.35263952541553</v>
+        <v>0.062332</v>
       </c>
       <c r="N3">
-        <v>2.35263952541553</v>
+        <v>0.186996</v>
       </c>
       <c r="O3">
-        <v>0.5986471784577609</v>
+        <v>0.009172364281912123</v>
       </c>
       <c r="P3">
-        <v>0.5986471784577609</v>
+        <v>0.009172364281912124</v>
       </c>
       <c r="Q3">
-        <v>333.337080387771</v>
+        <v>9.352008464314666</v>
       </c>
       <c r="R3">
-        <v>333.337080387771</v>
+        <v>84.168076178832</v>
       </c>
       <c r="S3">
-        <v>0.2526579444471459</v>
+        <v>0.003808831023470013</v>
       </c>
       <c r="T3">
-        <v>0.2526579444471459</v>
+        <v>0.003808831023470013</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H4">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I4">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J4">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.67240801428062</v>
+        <v>2.828637333333333</v>
       </c>
       <c r="N4">
-        <v>0.67240801428062</v>
+        <v>8.485911999999999</v>
       </c>
       <c r="O4">
-        <v>0.1710993784525413</v>
+        <v>0.4162435353069021</v>
       </c>
       <c r="P4">
-        <v>0.1710993784525413</v>
+        <v>0.4162435353069021</v>
       </c>
       <c r="Q4">
-        <v>95.27108674672652</v>
+        <v>424.3958205064781</v>
       </c>
       <c r="R4">
-        <v>95.27108674672652</v>
+        <v>3819.562384558304</v>
       </c>
       <c r="S4">
-        <v>0.07221217907912272</v>
+        <v>0.1728454345977265</v>
       </c>
       <c r="T4">
-        <v>0.07221217907912272</v>
+        <v>0.1728454345977265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>67.92168737024831</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H5">
-        <v>67.92168737024831</v>
+        <v>450.106292</v>
       </c>
       <c r="I5">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J5">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.904879151809215</v>
+        <v>2.902379666666667</v>
       </c>
       <c r="N5">
-        <v>0.904879151809215</v>
+        <v>8.707139</v>
       </c>
       <c r="O5">
-        <v>0.2302534430896978</v>
+        <v>0.4270949686690841</v>
       </c>
       <c r="P5">
-        <v>0.2302534430896978</v>
+        <v>0.4270949686690841</v>
       </c>
       <c r="Q5">
-        <v>61.46091885704096</v>
+        <v>435.4597832465097</v>
       </c>
       <c r="R5">
-        <v>61.46091885704096</v>
+        <v>3919.138049218588</v>
       </c>
       <c r="S5">
-        <v>0.04658524459441592</v>
+        <v>0.1773515002934056</v>
       </c>
       <c r="T5">
-        <v>0.04658524459441592</v>
+        <v>0.1773515002934055</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H6">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J6">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.35263952541553</v>
+        <v>1.002281666666667</v>
       </c>
       <c r="N6">
-        <v>2.35263952541553</v>
+        <v>3.006845</v>
       </c>
       <c r="O6">
-        <v>0.5986471784577609</v>
+        <v>0.1474891317421017</v>
       </c>
       <c r="P6">
-        <v>0.5986471784577609</v>
+        <v>0.1474891317421018</v>
       </c>
       <c r="Q6">
-        <v>159.795246340163</v>
+        <v>68.538268484445</v>
       </c>
       <c r="R6">
-        <v>159.795246340163</v>
+        <v>616.844416360005</v>
       </c>
       <c r="S6">
-        <v>0.1211192538968793</v>
+        <v>0.02791386302681255</v>
       </c>
       <c r="T6">
-        <v>0.1211192538968793</v>
+        <v>0.02791386302681255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H7">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J7">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.67240801428062</v>
+        <v>0.062332</v>
       </c>
       <c r="N7">
-        <v>0.67240801428062</v>
+        <v>0.186996</v>
       </c>
       <c r="O7">
-        <v>0.1710993784525413</v>
+        <v>0.009172364281912123</v>
       </c>
       <c r="P7">
-        <v>0.1710993784525413</v>
+        <v>0.009172364281912124</v>
       </c>
       <c r="Q7">
-        <v>45.67108693121773</v>
+        <v>4.262401970676</v>
       </c>
       <c r="R7">
-        <v>45.67108693121773</v>
+        <v>38.361617736084</v>
       </c>
       <c r="S7">
-        <v>0.03461709969765402</v>
+        <v>0.001735966014397763</v>
       </c>
       <c r="T7">
-        <v>0.03461709969765402</v>
+        <v>0.001735966014397762</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>91.2433905747086</v>
+        <v>68.382243</v>
       </c>
       <c r="H8">
-        <v>91.2433905747086</v>
+        <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J8">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.904879151809215</v>
+        <v>2.828637333333333</v>
       </c>
       <c r="N8">
-        <v>0.904879151809215</v>
+        <v>8.485911999999999</v>
       </c>
       <c r="O8">
-        <v>0.2302534430896978</v>
+        <v>0.4162435353069021</v>
       </c>
       <c r="P8">
-        <v>0.2302534430896978</v>
+        <v>0.4162435353069021</v>
       </c>
       <c r="Q8">
-        <v>82.56424187143924</v>
+        <v>193.428565486872</v>
       </c>
       <c r="R8">
-        <v>82.56424187143924</v>
+        <v>1740.857089381848</v>
       </c>
       <c r="S8">
-        <v>0.06258083142687811</v>
+        <v>0.07877844891425563</v>
       </c>
       <c r="T8">
-        <v>0.06258083142687811</v>
+        <v>0.0787784489142556</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>91.2433905747086</v>
+        <v>68.382243</v>
       </c>
       <c r="H9">
-        <v>91.2433905747086</v>
+        <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J9">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.35263952541553</v>
+        <v>2.902379666666667</v>
       </c>
       <c r="N9">
-        <v>2.35263952541553</v>
+        <v>8.707139</v>
       </c>
       <c r="O9">
-        <v>0.5986471784577609</v>
+        <v>0.4270949686690841</v>
       </c>
       <c r="P9">
-        <v>0.5986471784577609</v>
+        <v>0.4270949686690841</v>
       </c>
       <c r="Q9">
-        <v>214.6628070989863</v>
+        <v>198.471231644259</v>
       </c>
       <c r="R9">
-        <v>214.6628070989863</v>
+        <v>1786.241084798331</v>
       </c>
       <c r="S9">
-        <v>0.162706961757123</v>
+        <v>0.08083219633915871</v>
       </c>
       <c r="T9">
-        <v>0.162706961757123</v>
+        <v>0.08083219633915868</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H10">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I10">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J10">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.67240801428062</v>
+        <v>1.002281666666667</v>
       </c>
       <c r="N10">
-        <v>0.67240801428062</v>
+        <v>3.006845</v>
       </c>
       <c r="O10">
-        <v>0.1710993784525413</v>
+        <v>0.1474891317421017</v>
       </c>
       <c r="P10">
-        <v>0.1710993784525413</v>
+        <v>0.1474891317421018</v>
       </c>
       <c r="Q10">
-        <v>61.35278707257085</v>
+        <v>104.976220480675</v>
       </c>
       <c r="R10">
-        <v>61.35278707257085</v>
+        <v>944.7859843260749</v>
       </c>
       <c r="S10">
-        <v>0.04650328445256241</v>
+        <v>0.04275409788379868</v>
       </c>
       <c r="T10">
-        <v>0.04650328445256241</v>
+        <v>0.04275409788379868</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.8599992401179</v>
+        <v>104.737245</v>
       </c>
       <c r="H11">
-        <v>34.8599992401179</v>
+        <v>314.211735</v>
       </c>
       <c r="I11">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J11">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.904879151809215</v>
+        <v>0.062332</v>
       </c>
       <c r="N11">
-        <v>0.904879151809215</v>
+        <v>0.186996</v>
       </c>
       <c r="O11">
-        <v>0.2302534430896978</v>
+        <v>0.009172364281912123</v>
       </c>
       <c r="P11">
-        <v>0.2302534430896978</v>
+        <v>0.009172364281912124</v>
       </c>
       <c r="Q11">
-        <v>31.54408654446776</v>
+        <v>6.528481955339999</v>
       </c>
       <c r="R11">
-        <v>31.54408654446776</v>
+        <v>58.75633759805999</v>
       </c>
       <c r="S11">
-        <v>0.02390932342875493</v>
+        <v>0.002658881747439199</v>
       </c>
       <c r="T11">
-        <v>0.02390932342875493</v>
+        <v>0.002658881747439199</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.8599992401179</v>
+        <v>104.737245</v>
       </c>
       <c r="H12">
-        <v>34.8599992401179</v>
+        <v>314.211735</v>
       </c>
       <c r="I12">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J12">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.35263952541553</v>
+        <v>2.828637333333333</v>
       </c>
       <c r="N12">
-        <v>2.35263952541553</v>
+        <v>8.485911999999999</v>
       </c>
       <c r="O12">
-        <v>0.5986471784577609</v>
+        <v>0.4162435353069021</v>
       </c>
       <c r="P12">
-        <v>0.5986471784577609</v>
+        <v>0.4162435353069021</v>
       </c>
       <c r="Q12">
-        <v>82.01301206825671</v>
+        <v>296.26368139748</v>
       </c>
       <c r="R12">
-        <v>82.01301206825671</v>
+        <v>2666.37313257732</v>
       </c>
       <c r="S12">
-        <v>0.06216301835661277</v>
+        <v>0.1206605303170938</v>
       </c>
       <c r="T12">
-        <v>0.06216301835661277</v>
+        <v>0.1206605303170938</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.8599992401179</v>
+        <v>104.737245</v>
       </c>
       <c r="H13">
-        <v>34.8599992401179</v>
+        <v>314.211735</v>
       </c>
       <c r="I13">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J13">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.67240801428062</v>
+        <v>2.902379666666667</v>
       </c>
       <c r="N13">
-        <v>0.67240801428062</v>
+        <v>8.707139</v>
       </c>
       <c r="O13">
-        <v>0.1710993784525413</v>
+        <v>0.4270949686690841</v>
       </c>
       <c r="P13">
-        <v>0.1710993784525413</v>
+        <v>0.4270949686690841</v>
       </c>
       <c r="Q13">
-        <v>23.4401428668716</v>
+        <v>303.9872502306849</v>
       </c>
       <c r="R13">
-        <v>23.4401428668716</v>
+        <v>2735.885252076165</v>
       </c>
       <c r="S13">
-        <v>0.01776681522320215</v>
+        <v>0.1238061400217973</v>
       </c>
       <c r="T13">
-        <v>0.01776681522320215</v>
+        <v>0.1238061400217973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>38.15794</v>
+      </c>
+      <c r="H14">
+        <v>114.47382</v>
+      </c>
+      <c r="I14">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J14">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.002281666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.006845</v>
+      </c>
+      <c r="O14">
+        <v>0.1474891317421017</v>
+      </c>
+      <c r="P14">
+        <v>0.1474891317421018</v>
+      </c>
+      <c r="Q14">
+        <v>38.24500369976666</v>
+      </c>
+      <c r="R14">
+        <v>344.2050332979</v>
+      </c>
+      <c r="S14">
+        <v>0.01557620025048508</v>
+      </c>
+      <c r="T14">
+        <v>0.01557620025048508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>38.15794</v>
+      </c>
+      <c r="H15">
+        <v>114.47382</v>
+      </c>
+      <c r="I15">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J15">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.062332</v>
+      </c>
+      <c r="N15">
+        <v>0.186996</v>
+      </c>
+      <c r="O15">
+        <v>0.009172364281912123</v>
+      </c>
+      <c r="P15">
+        <v>0.009172364281912124</v>
+      </c>
+      <c r="Q15">
+        <v>2.37846071608</v>
+      </c>
+      <c r="R15">
+        <v>21.40614644472</v>
+      </c>
+      <c r="S15">
+        <v>0.0009686854966051489</v>
+      </c>
+      <c r="T15">
+        <v>0.0009686854966051488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>38.15794</v>
+      </c>
+      <c r="H16">
+        <v>114.47382</v>
+      </c>
+      <c r="I16">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J16">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.828637333333333</v>
+      </c>
+      <c r="N16">
+        <v>8.485911999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.4162435353069021</v>
+      </c>
+      <c r="P16">
+        <v>0.4162435353069021</v>
+      </c>
+      <c r="Q16">
+        <v>107.9349736470933</v>
+      </c>
+      <c r="R16">
+        <v>971.41476282384</v>
+      </c>
+      <c r="S16">
+        <v>0.04395912147782622</v>
+      </c>
+      <c r="T16">
+        <v>0.04395912147782621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>38.15794</v>
+      </c>
+      <c r="H17">
+        <v>114.47382</v>
+      </c>
+      <c r="I17">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J17">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.902379666666667</v>
+      </c>
+      <c r="N17">
+        <v>8.707139</v>
+      </c>
+      <c r="O17">
+        <v>0.4270949686690841</v>
+      </c>
+      <c r="P17">
+        <v>0.4270949686690841</v>
+      </c>
+      <c r="Q17">
+        <v>110.7488291778867</v>
+      </c>
+      <c r="R17">
+        <v>996.73946260098</v>
+      </c>
+      <c r="S17">
+        <v>0.04510513201472256</v>
+      </c>
+      <c r="T17">
+        <v>0.04510513201472255</v>
       </c>
     </row>
   </sheetData>
